--- a/consulta/consulta.xlsx
+++ b/consulta/consulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documentos\AutomatizandoNavegador\consulta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{473D70EC-C112-4FA0-AF30-440312032A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3949E869-F8DD-4559-8F78-58AEBED77F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FAE364F6-E998-4F9F-B0CA-93F0E78F7848}"/>
   </bookViews>
